--- a/cta策略/result/螺纹/MACD_30min/wfo_组合绩效.xlsx
+++ b/cta策略/result/螺纹/MACD_30min/wfo_组合绩效.xlsx
@@ -423,16 +423,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.02938809137167486</v>
+        <v>0.1469311590967539</v>
       </c>
       <c r="D2">
-        <v>-0.06978892638376005</v>
+        <v>0.6369592729341095</v>
       </c>
       <c r="E2">
-        <v>0.1359234293086782</v>
+        <v>0.8381636534952028</v>
       </c>
       <c r="F2">
-        <v>0.5625</v>
+        <v>0.6875</v>
       </c>
     </row>
   </sheetData>
